--- a/[WIP] CANDY ROCKET TESI CHIMICA/DATI TEST 13.06/data2.xlsx
+++ b/[WIP] CANDY ROCKET TESI CHIMICA/DATI TEST 13.06/data2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\Projects\[WIP] CANDY ROCKET TESI CHIMICA\DATI TEST 13.06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A9044F-4590-489F-B088-B7ACEDF0BFCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD778CB-F534-4B1D-8EDE-218D9DEE2320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4902,16 +4902,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>506</xdr:row>
-      <xdr:rowOff>41910</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>461</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>521</xdr:row>
-      <xdr:rowOff>41910</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>476</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5238,8 +5238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A501" workbookViewId="0">
-      <selection activeCell="J503" sqref="J503"/>
+    <sheetView tabSelected="1" topLeftCell="A458" workbookViewId="0">
+      <selection activeCell="J1174" sqref="J1174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
